--- a/data/trans_camb/IP1003-Edad-trans_camb.xlsx
+++ b/data/trans_camb/IP1003-Edad-trans_camb.xlsx
@@ -838,7 +838,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>5/9</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-2,27</t>
+          <t>-0,19</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-1,66</t>
+          <t>-1,85</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1,14</t>
+          <t>-0,65</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,82</t>
+          <t>-4,19</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-0,69</t>
+          <t>-3,86</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>1,61</t>
+          <t>-4,95</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-0,77</t>
+          <t>-2,14</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-1,2</t>
+          <t>-2,82</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>1,42</t>
+          <t>-2,75</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-6,39; 1,35</t>
+          <t>-4,27; 3,35</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-5,7; 1,89</t>
+          <t>-5,15; 1,42</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,0; 5,31</t>
+          <t>-4,8; 3,62</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,81; 4,82</t>
+          <t>-8,51; -0,14</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-4,06; 2,55</t>
+          <t>-8,22; -0,18</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-1,9; 4,84</t>
+          <t>-9,21; -0,89</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-3,13; 1,9</t>
+          <t>-4,72; 0,73</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-3,6; 1,39</t>
+          <t>-5,7; -0,01</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-1,15; 4,39</t>
+          <t>-5,77; 0,61</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-23,65%</t>
+          <t>-2,78%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-17,38%</t>
+          <t>-26,58%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>11,92%</t>
+          <t>-9,32%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>13,31%</t>
+          <t>-44,52%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-11,13%</t>
+          <t>-40,97%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>25,98%</t>
+          <t>-52,6%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-9,64%</t>
+          <t>-26,19%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-15,07%</t>
+          <t>-34,64%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>17,96%</t>
+          <t>-33,67%</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-53,63; 20,91</t>
+          <t>-48,68; 66,25</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-50,76; 24,83</t>
+          <t>-60,27; 29,69</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-25,71; 68,34</t>
+          <t>-57,88; 76,82</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-36,47; 103,91</t>
+          <t>-71,72; 0,36</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-51,31; 58,45</t>
+          <t>-66,88; -0,24</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-26,5; 103,17</t>
+          <t>-77,06; -4,72</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-35,01; 28,75</t>
+          <t>-49,2; 13,96</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-40,89; 20,99</t>
+          <t>-57,95; 0,68</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-13,12; 65,49</t>
+          <t>-57,96; 10,63</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>10/15</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-0,19</t>
+          <t>-2,27</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-1,85</t>
+          <t>-1,66</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-0,65</t>
+          <t>1,14</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-4,19</t>
+          <t>0,82</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-3,86</t>
+          <t>-0,69</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-4,95</t>
+          <t>1,61</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-2,14</t>
+          <t>-0,77</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-2,82</t>
+          <t>-1,2</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-2,75</t>
+          <t>1,42</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-4,27; 3,35</t>
+          <t>-6,39; 1,35</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-5,15; 1,42</t>
+          <t>-5,7; 1,89</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-4,8; 3,62</t>
+          <t>-3,0; 5,31</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-8,51; -0,14</t>
+          <t>-2,81; 4,82</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-8,22; -0,18</t>
+          <t>-4,06; 2,55</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-9,21; -0,89</t>
+          <t>-1,9; 4,84</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-4,72; 0,73</t>
+          <t>-3,13; 1,9</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-5,7; -0,01</t>
+          <t>-3,6; 1,39</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-5,77; 0,61</t>
+          <t>-1,15; 4,39</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-2,78%</t>
+          <t>-23,65%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-26,58%</t>
+          <t>-17,38%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-9,32%</t>
+          <t>11,92%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-44,52%</t>
+          <t>13,31%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-40,97%</t>
+          <t>-11,13%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-52,6%</t>
+          <t>25,98%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-26,19%</t>
+          <t>-9,64%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-34,64%</t>
+          <t>-15,07%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-33,67%</t>
+          <t>17,96%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-48,68; 66,25</t>
+          <t>-53,63; 20,91</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-60,27; 29,69</t>
+          <t>-50,76; 24,83</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-57,88; 76,82</t>
+          <t>-25,71; 68,34</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-71,72; 0,36</t>
+          <t>-36,47; 103,91</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-66,88; -0,24</t>
+          <t>-51,31; 58,45</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-77,06; -4,72</t>
+          <t>-26,5; 103,17</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-49,2; 13,96</t>
+          <t>-35,01; 28,75</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-57,95; 0,68</t>
+          <t>-40,89; 20,99</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-57,96; 10,63</t>
+          <t>-13,12; 65,49</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP1003-Edad-trans_camb.xlsx
+++ b/data/trans_camb/IP1003-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>0/4</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,55</t>
+          <t>-1,53</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-1,85</t>
+          <t>-1,91</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-0,64</t>
+          <t>-1,9</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-0,78</t>
+          <t>-1,23</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-0,17</t>
+          <t>-0,38</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-1,53</t>
+          <t>-1,16</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-0,1</t>
+          <t>-1,43</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-1,03</t>
+          <t>-1,18</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-1,04</t>
+          <t>-1,57</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,18; 3,75</t>
+          <t>-4,89; 1,63</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-4,6; 0,26</t>
+          <t>-5,33; 0,58</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,68; 2,59</t>
+          <t>-5,14; 1,26</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-2,74; 1,39</t>
+          <t>-4,07; 0,5</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-2,22; 2,44</t>
+          <t>-3,13; 1,8</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-3,63; 0,42</t>
+          <t>-3,8; 0,68</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-1,85; 1,69</t>
+          <t>-3,79; 0,32</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-2,75; 0,67</t>
+          <t>-3,35; 0,54</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-3,0; 0,68</t>
+          <t>-3,7; 0,3</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>15,78%</t>
+          <t>-51,8%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-52,84%</t>
+          <t>-64,52%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-18,32%</t>
+          <t>-64,35%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-33,82%</t>
+          <t>-71,1%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-7,4%</t>
+          <t>-21,76%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-65,77%</t>
+          <t>-66,73%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-3,29%</t>
+          <t>-59,76%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-35,36%</t>
+          <t>-49,38%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-35,38%</t>
+          <t>-65,67%</t>
         </is>
       </c>
     </row>
@@ -791,54 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-45,69; 189,95</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-88,6; 23,81</t>
+          <t>-100,0; 160,49</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-75,39; 147,54</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-83,96; 140,26</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-70,54; 209,82</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 132,68</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-47,77; 81,43</t>
+          <t>-92,07; 69,26</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-68,59; 44,28</t>
+          <t>-88,88; 75,74</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-79,52; 37,69</t>
+          <t>-100,0; 133,46</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,19</t>
+          <t>0,06</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-1,85</t>
+          <t>-1,17</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-0,65</t>
+          <t>-1,03</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-4,19</t>
+          <t>-2,37</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-3,86</t>
+          <t>-3,16</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-4,95</t>
+          <t>-2,97</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-2,14</t>
+          <t>-1,09</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-2,82</t>
+          <t>-2,09</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-2,75</t>
+          <t>-1,97</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,27; 3,35</t>
+          <t>-3,41; 3,33</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-5,15; 1,42</t>
+          <t>-4,15; 2,18</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-4,8; 3,62</t>
+          <t>-4,33; 3,2</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-8,51; -0,14</t>
+          <t>-5,96; 0,93</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-8,22; -0,18</t>
+          <t>-6,25; 0,41</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-9,21; -0,89</t>
+          <t>-6,26; 0,79</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-4,72; 0,73</t>
+          <t>-3,5; 1,57</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-5,7; -0,01</t>
+          <t>-4,3; 0,25</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-5,77; 0,61</t>
+          <t>-4,3; 0,56</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-2,78%</t>
+          <t>1,09%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-26,58%</t>
+          <t>-19,85%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-9,32%</t>
+          <t>-17,54%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-44,52%</t>
+          <t>-36,45%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-40,97%</t>
+          <t>-48,69%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-52,6%</t>
+          <t>-45,74%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-26,19%</t>
+          <t>-17,6%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-34,64%</t>
+          <t>-33,82%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-33,67%</t>
+          <t>-31,77%</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-48,68; 66,25</t>
+          <t>-45,62; 77,97</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-60,27; 29,69</t>
+          <t>-58,0; 55,96</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-57,88; 76,82</t>
+          <t>-62,03; 83,65</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-71,72; 0,36</t>
+          <t>-69,23; 21,99</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-66,88; -0,24</t>
+          <t>-76,06; 14,42</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-77,06; -4,72</t>
+          <t>-76,82; 28,21</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-49,2; 13,96</t>
+          <t>-47,3; 32,93</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-57,95; 0,68</t>
+          <t>-58,2; 5,78</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-57,96; 10,63</t>
+          <t>-60,26; 12,21</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>8-11</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-2,27</t>
+          <t>0,48</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-1,66</t>
+          <t>-2,18</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>1,14</t>
+          <t>-0,49</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,82</t>
+          <t>-2,24</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-0,69</t>
+          <t>-1,35</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>1,61</t>
+          <t>-2,49</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-0,77</t>
+          <t>-0,87</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-1,2</t>
+          <t>-1,77</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>1,42</t>
+          <t>-1,42</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-6,39; 1,35</t>
+          <t>-5,32; 6,38</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-5,7; 1,89</t>
+          <t>-7,29; 2,72</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-3,0; 5,31</t>
+          <t>-6,32; 4,94</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-2,81; 4,82</t>
+          <t>-7,74; 2,64</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-4,06; 2,55</t>
+          <t>-5,99; 4,14</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-1,9; 4,84</t>
+          <t>-7,71; 2,17</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-3,13; 1,9</t>
+          <t>-4,82; 2,85</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-3,6; 1,39</t>
+          <t>-4,96; 2,03</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-1,15; 4,39</t>
+          <t>-5,27; 2,14</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-23,65%</t>
+          <t>5,44%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-17,38%</t>
+          <t>-24,68%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>11,92%</t>
+          <t>-5,59%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>13,31%</t>
+          <t>-25,98%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-11,13%</t>
+          <t>-15,66%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>25,98%</t>
+          <t>-28,97%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-9,64%</t>
+          <t>-9,94%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-15,07%</t>
+          <t>-20,27%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>17,96%</t>
+          <t>-16,34%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-53,63; 20,91</t>
+          <t>-44,8; 116,26</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-50,76; 24,83</t>
+          <t>-60,77; 51,92</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-25,71; 68,34</t>
+          <t>-54,36; 74,77</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-36,47; 103,91</t>
+          <t>-64,94; 51,8</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-51,31; 58,45</t>
+          <t>-52,68; 75,36</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-26,5; 103,17</t>
+          <t>-67,05; 37,25</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-35,01; 28,75</t>
+          <t>-44,5; 43,32</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-40,89; 20,99</t>
+          <t>-48,21; 33,41</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-13,12; 65,49</t>
+          <t>-48,79; 32,58</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>12-15</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-0,81</t>
+          <t>-1,92</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-1,73</t>
+          <t>-1,96</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>1,29</t>
+          <t>2,38</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-1,27</t>
+          <t>1,69</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-1,41</t>
+          <t>-0,32</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-0,29</t>
+          <t>1,94</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-1,03</t>
+          <t>-0,17</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-1,57</t>
+          <t>-1,19</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,55</t>
+          <t>2,21</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,86; 1,33</t>
+          <t>-6,54; 2,74</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-3,59; 0,33</t>
+          <t>-7,29; 2,67</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,96; 3,71</t>
+          <t>-2,55; 6,86</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-3,24; 0,77</t>
+          <t>-2,93; 6,15</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-3,52; 0,41</t>
+          <t>-4,38; 3,51</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-2,3; 1,99</t>
+          <t>-1,63; 6,66</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-2,37; 0,47</t>
+          <t>-3,2; 2,97</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-3,02; -0,09</t>
+          <t>-4,43; 1,59</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-1,05; 2,07</t>
+          <t>-0,77; 5,46</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-11,71%</t>
+          <t>-20,82%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-25,05%</t>
+          <t>-21,35%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>18,62%</t>
+          <t>25,85%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-21,26%</t>
+          <t>28,81%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-23,55%</t>
+          <t>-5,38%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-4,83%</t>
+          <t>33,04%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-16,0%</t>
+          <t>-2,18%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-24,38%</t>
+          <t>-15,67%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>8,55%</t>
+          <t>29,11%</t>
         </is>
       </c>
     </row>
@@ -1439,58 +1439,282 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-36,97; 22,87</t>
+          <t>-56,86; 44,27</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-46,7; 4,8</t>
+          <t>-59,19; 40,43</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-13,64; 63,85</t>
+          <t>-22,89; 98,29</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-46,57; 16,19</t>
+          <t>-38,15; 165,78</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-49,62; 9,86</t>
+          <t>-56,25; 86,68</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-33,63; 39,02</t>
+          <t>-23,04; 184,8</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-33,41; 8,63</t>
+          <t>-36,93; 52,75</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-41,67; -1,35</t>
+          <t>-49,05; 27,45</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-15,25; 36,21</t>
+          <t>-9,12; 90,19</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>-0,81</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>-1,73</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>1,29</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>-1,27</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>-1,41</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>-0,29</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>-1,03</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>-1,57</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>0,55</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-2,91; 1,45</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>-3,88; 0,41</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>-1,02; 3,92</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>-3,37; 0,6</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>-3,29; 0,5</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>-2,27; 1,87</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-2,45; 0,4</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-2,98; 0,07</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>-1,13; 2,26</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>-11,71%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>-25,05%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>18,62%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>-21,26%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>-23,55%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>-4,83%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>-16,0%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>-24,38%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>8,55%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-36,48; 24,81</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>-47,45; 7,34</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>-13,52; 64,94</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>-47,56; 12,78</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>-46,41; 11,23</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>-33,66; 38,56</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-33,33; 7,71</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-42,37; 0,97</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>-14,76; 39,24</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>

--- a/data/trans_camb/IP1003-Edad-trans_camb.xlsx
+++ b/data/trans_camb/IP1003-Edad-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-4,89; 1,63</t>
+          <t>-5,07; 1,2</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-5,33; 0,58</t>
+          <t>-5,5; 0,44</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-5,14; 1,26</t>
+          <t>-5,13; 1,43</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-4,07; 0,5</t>
+          <t>-4,03; 0,51</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-3,13; 1,8</t>
+          <t>-3,46; 1,78</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-3,8; 0,68</t>
+          <t>-4,11; 0,62</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-3,79; 0,32</t>
+          <t>-3,57; 0,25</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-3,35; 0,54</t>
+          <t>-3,33; 0,45</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-3,7; 0,3</t>
+          <t>-3,72; 0,25</t>
         </is>
       </c>
     </row>
@@ -791,14 +791,14 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>-100,0; 172,37</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; 160,49</t>
-        </is>
-      </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
@@ -821,17 +821,17 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-92,07; 69,26</t>
+          <t>-90,57; 49,88</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-88,88; 75,74</t>
+          <t>-85,6; 62,83</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 133,46</t>
+          <t>-100,0; 89,92</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,41; 3,33</t>
+          <t>-3,39; 3,27</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,15; 2,18</t>
+          <t>-4,38; 2,11</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-4,33; 3,2</t>
+          <t>-4,41; 3,07</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-5,96; 0,93</t>
+          <t>-5,76; 0,76</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-6,25; 0,41</t>
+          <t>-6,32; 0,14</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-6,26; 0,79</t>
+          <t>-6,44; 0,46</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-3,5; 1,57</t>
+          <t>-3,55; 1,22</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-4,3; 0,25</t>
+          <t>-4,38; 0,11</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-4,3; 0,56</t>
+          <t>-4,21; 0,84</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-45,62; 77,97</t>
+          <t>-46,43; 77,4</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-58,0; 55,96</t>
+          <t>-58,05; 51,05</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-62,03; 83,65</t>
+          <t>-62,49; 81,87</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-69,23; 21,99</t>
+          <t>-68,51; 21,01</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-76,06; 14,42</t>
+          <t>-76,94; 10,8</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-76,82; 28,21</t>
+          <t>-77,7; 12,41</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-47,3; 32,93</t>
+          <t>-47,88; 24,2</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-58,2; 5,78</t>
+          <t>-59,67; 6,99</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-60,26; 12,21</t>
+          <t>-60,56; 17,89</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-5,32; 6,38</t>
+          <t>-4,92; 5,84</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-7,29; 2,72</t>
+          <t>-7,12; 2,86</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-6,32; 4,94</t>
+          <t>-5,61; 4,94</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-7,74; 2,64</t>
+          <t>-7,27; 3,14</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-5,99; 4,14</t>
+          <t>-7,19; 3,43</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-7,71; 2,17</t>
+          <t>-7,69; 2,25</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-4,82; 2,85</t>
+          <t>-4,59; 3,35</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-4,96; 2,03</t>
+          <t>-5,31; 1,58</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-5,27; 2,14</t>
+          <t>-5,4; 2,13</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-44,8; 116,26</t>
+          <t>-44,55; 96,26</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-60,77; 51,92</t>
+          <t>-62,16; 49,81</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-54,36; 74,77</t>
+          <t>-50,85; 84,94</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-64,94; 51,8</t>
+          <t>-63,95; 59,76</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-52,68; 75,36</t>
+          <t>-58,52; 64,58</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-67,05; 37,25</t>
+          <t>-63,41; 39,64</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-44,5; 43,32</t>
+          <t>-43,43; 53,07</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-48,21; 33,41</t>
+          <t>-49,79; 22,88</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-48,79; 32,58</t>
+          <t>-48,75; 32,67</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-6,54; 2,74</t>
+          <t>-6,45; 2,95</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-7,29; 2,67</t>
+          <t>-6,08; 3,18</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-2,55; 6,86</t>
+          <t>-2,27; 7,21</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-2,93; 6,15</t>
+          <t>-2,55; 6,27</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-4,38; 3,51</t>
+          <t>-3,89; 3,9</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-1,63; 6,66</t>
+          <t>-2,36; 5,57</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-3,2; 2,97</t>
+          <t>-3,29; 3,05</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-4,43; 1,59</t>
+          <t>-4,13; 1,97</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-0,77; 5,46</t>
+          <t>-0,89; 5,42</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-56,86; 44,27</t>
+          <t>-56,93; 44,46</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-59,19; 40,43</t>
+          <t>-54,77; 45,08</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-22,89; 98,29</t>
+          <t>-20,18; 97,96</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-38,15; 165,78</t>
+          <t>-35,51; 147,69</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-56,25; 86,68</t>
+          <t>-53,67; 98,53</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-23,04; 184,8</t>
+          <t>-29,41; 135,13</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-36,93; 52,75</t>
+          <t>-35,46; 49,23</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-49,05; 27,45</t>
+          <t>-45,19; 33,17</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-9,12; 90,19</t>
+          <t>-10,99; 87,42</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-2,91; 1,45</t>
+          <t>-2,95; 1,46</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-3,88; 0,41</t>
+          <t>-3,75; 0,12</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-1,02; 3,92</t>
+          <t>-1,07; 3,75</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-3,37; 0,6</t>
+          <t>-3,25; 0,87</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-3,29; 0,5</t>
+          <t>-3,43; 0,37</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-2,27; 1,87</t>
+          <t>-2,13; 1,91</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-2,45; 0,4</t>
+          <t>-2,45; 0,41</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-2,98; 0,07</t>
+          <t>-2,99; -0,14</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-1,13; 2,26</t>
+          <t>-1,14; 2,16</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-36,48; 24,81</t>
+          <t>-37,8; 23,99</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-47,45; 7,34</t>
+          <t>-48,29; 2,31</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-13,52; 64,94</t>
+          <t>-13,68; 66,03</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-47,56; 12,78</t>
+          <t>-45,84; 18,49</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-46,41; 11,23</t>
+          <t>-49,3; 8,3</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-33,66; 38,56</t>
+          <t>-32,39; 40,13</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-33,33; 7,71</t>
+          <t>-33,95; 7,77</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-42,37; 0,97</t>
+          <t>-41,27; -2,37</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-14,76; 39,24</t>
+          <t>-16,45; 36,93</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP1003-Edad-trans_camb.xlsx
+++ b/data/trans_camb/IP1003-Edad-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -537,14 +537,14 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="G1" s="3" t="n"/>
@@ -632,32 +632,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>-1,23</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>-0,38</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>-1,19</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
           <t>-1,53</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
+      <c r="G4" s="2" t="inlineStr">
         <is>
           <t>-1,91</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-1,9</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>-1,23</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>-0,38</t>
-        </is>
-      </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-1,16</t>
+          <t>-1,98</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-1,57</t>
+          <t>-1,62</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-5,07; 1,2</t>
+          <t>-3,95; 0,5</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-5,5; 0,44</t>
+          <t>-3,48; 1,65</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-5,13; 1,43</t>
+          <t>-4,34; 0,5</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-4,03; 0,51</t>
+          <t>-4,88; 1,17</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-3,46; 1,78</t>
+          <t>-5,46; 0,48</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-4,11; 0,62</t>
+          <t>-5,51; 0,84</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-3,57; 0,25</t>
+          <t>-3,39; 0,28</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-3,33; 0,45</t>
+          <t>-3,35; 0,6</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-3,72; 0,25</t>
+          <t>-3,85; 0,15</t>
         </is>
       </c>
     </row>
@@ -738,32 +738,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>-71,1%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>-21,76%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>-68,26%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>-51,8%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
+      <c r="G6" s="2" t="inlineStr">
         <is>
           <t>-64,52%</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-64,35%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>-71,1%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>-21,76%</t>
-        </is>
-      </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-66,73%</t>
+          <t>-67,15%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-65,67%</t>
+          <t>-67,78%</t>
         </is>
       </c>
     </row>
@@ -791,7 +791,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 172,37</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -821,17 +821,17 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-90,57; 49,88</t>
+          <t>-91,27; 48,87</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-85,6; 62,83</t>
+          <t>-89,25; 81,21</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 89,92</t>
+          <t>-100,0; 115,47</t>
         </is>
       </c>
     </row>
@@ -848,32 +848,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>-2,37</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>-3,16</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>-3,04</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
           <t>0,06</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
+      <c r="G8" s="2" t="inlineStr">
         <is>
           <t>-1,17</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-1,03</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-2,37</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>-3,16</t>
-        </is>
-      </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-2,97</t>
+          <t>-0,77</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-1,97</t>
+          <t>-1,85</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,39; 3,27</t>
+          <t>-5,6; 0,74</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,38; 2,11</t>
+          <t>-6,44; 0,06</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-4,41; 3,07</t>
+          <t>-6,73; 0,22</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-5,76; 0,76</t>
+          <t>-3,39; 3,45</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-6,32; 0,14</t>
+          <t>-4,56; 1,89</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-6,44; 0,46</t>
+          <t>-3,95; 3,29</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-3,55; 1,22</t>
+          <t>-3,63; 1,23</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-4,38; 0,11</t>
+          <t>-4,39; 0,28</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-4,21; 0,84</t>
+          <t>-4,32; 0,98</t>
         </is>
       </c>
     </row>
@@ -954,32 +954,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>-36,45%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>-48,69%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>-46,84%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
           <t>1,09%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
+      <c r="G10" s="2" t="inlineStr">
         <is>
           <t>-19,85%</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-17,54%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>-36,45%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>-48,69%</t>
-        </is>
-      </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-45,74%</t>
+          <t>-13,06%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-31,77%</t>
+          <t>-29,84%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-46,43; 77,4</t>
+          <t>-67,76; 19,61</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-58,05; 51,05</t>
+          <t>-77,79; 10,37</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-62,49; 81,87</t>
+          <t>-80,49; 11,89</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-68,51; 21,01</t>
+          <t>-43,39; 79,22</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-76,94; 10,8</t>
+          <t>-58,42; 49,05</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-77,7; 12,41</t>
+          <t>-55,89; 82,18</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-47,88; 24,2</t>
+          <t>-49,27; 26,55</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-59,67; 6,99</t>
+          <t>-59,26; 8,94</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-60,56; 17,89</t>
+          <t>-60,49; 20,21</t>
         </is>
       </c>
     </row>
@@ -1064,32 +1064,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>-2,24</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>-1,35</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>-2,57</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
           <t>0,48</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
+      <c r="G12" s="2" t="inlineStr">
         <is>
           <t>-2,18</t>
         </is>
       </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-0,49</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>-2,24</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>-1,35</t>
-        </is>
-      </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-2,49</t>
+          <t>-0,23</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-1,42</t>
+          <t>-1,28</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-4,92; 5,84</t>
+          <t>-7,74; 3,11</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-7,12; 2,86</t>
+          <t>-6,67; 3,49</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-5,61; 4,94</t>
+          <t>-7,87; 2,05</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-7,27; 3,14</t>
+          <t>-5,17; 5,77</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-7,19; 3,43</t>
+          <t>-6,97; 2,6</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-7,69; 2,25</t>
+          <t>-5,68; 5,79</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-4,59; 3,35</t>
+          <t>-4,91; 2,81</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-5,31; 1,58</t>
+          <t>-5,58; 1,84</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-5,4; 2,13</t>
+          <t>-4,87; 2,27</t>
         </is>
       </c>
     </row>
@@ -1170,32 +1170,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>-25,98%</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>-15,66%</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>-29,87%</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
           <t>5,44%</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
+      <c r="G14" s="2" t="inlineStr">
         <is>
           <t>-24,68%</t>
         </is>
       </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>-5,59%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>-25,98%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>-15,66%</t>
-        </is>
-      </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-28,97%</t>
+          <t>-2,61%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-16,34%</t>
+          <t>-14,67%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-44,55; 96,26</t>
+          <t>-64,06; 63,25</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-62,16; 49,81</t>
+          <t>-57,97; 61,69</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-50,85; 84,94</t>
+          <t>-67,27; 41,57</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-63,95; 59,76</t>
+          <t>-42,68; 96,21</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-58,52; 64,58</t>
+          <t>-61,05; 42,53</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-63,41; 39,64</t>
+          <t>-48,91; 103,24</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-43,43; 53,07</t>
+          <t>-45,03; 40,79</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-49,79; 22,88</t>
+          <t>-51,14; 31,58</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-48,75; 32,67</t>
+          <t>-47,58; 36,34</t>
         </is>
       </c>
     </row>
@@ -1280,32 +1280,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>1,69</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>-0,32</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>1,53</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
           <t>-1,92</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
+      <c r="G16" s="2" t="inlineStr">
         <is>
           <t>-1,96</t>
         </is>
       </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>2,38</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>1,69</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>-0,32</t>
-        </is>
-      </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>1,94</t>
+          <t>2,12</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>2,21</t>
+          <t>1,88</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-6,45; 2,95</t>
+          <t>-2,44; 6,39</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-6,08; 3,18</t>
+          <t>-4,11; 3,53</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-2,27; 7,21</t>
+          <t>-2,95; 5,14</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-2,55; 6,27</t>
+          <t>-6,23; 2,98</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-3,89; 3,9</t>
+          <t>-6,62; 3,14</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-2,36; 5,57</t>
+          <t>-2,4; 7,34</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-3,29; 3,05</t>
+          <t>-3,29; 3,14</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-4,13; 1,97</t>
+          <t>-3,93; 2,28</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-0,89; 5,42</t>
+          <t>-1,48; 4,93</t>
         </is>
       </c>
     </row>
@@ -1386,32 +1386,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
+          <t>28,81%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>-5,38%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>26,12%</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
           <t>-20,82%</t>
         </is>
       </c>
-      <c r="D18" s="2" t="inlineStr">
+      <c r="G18" s="2" t="inlineStr">
         <is>
           <t>-21,35%</t>
         </is>
       </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>25,85%</t>
-        </is>
-      </c>
-      <c r="F18" s="2" t="inlineStr">
-        <is>
-          <t>28,81%</t>
-        </is>
-      </c>
-      <c r="G18" s="2" t="inlineStr">
-        <is>
-          <t>-5,38%</t>
-        </is>
-      </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>33,04%</t>
+          <t>23,03%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>29,11%</t>
+          <t>24,75%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-56,93; 44,46</t>
+          <t>-34,25; 164,55</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-54,77; 45,08</t>
+          <t>-53,76; 88,9</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-20,18; 97,96</t>
+          <t>-36,8; 127,86</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-35,51; 147,69</t>
+          <t>-56,71; 44,2</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-53,67; 98,53</t>
+          <t>-58,98; 49,23</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-29,41; 135,13</t>
+          <t>-21,65; 110,28</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-35,46; 49,23</t>
+          <t>-36,27; 51,84</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-45,19; 33,17</t>
+          <t>-45,42; 33,62</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-10,99; 87,42</t>
+          <t>-17,28; 79,44</t>
         </is>
       </c>
     </row>
@@ -1496,32 +1496,32 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
+          <t>-1,27</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>-1,41</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>-0,45</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
           <t>-0,81</t>
         </is>
       </c>
-      <c r="D20" s="2" t="inlineStr">
+      <c r="G20" s="2" t="inlineStr">
         <is>
           <t>-1,73</t>
         </is>
       </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>1,29</t>
-        </is>
-      </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>-1,27</t>
-        </is>
-      </c>
-      <c r="G20" s="2" t="inlineStr">
-        <is>
-          <t>-1,41</t>
-        </is>
-      </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-0,29</t>
+          <t>1,33</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
@@ -1536,7 +1536,7 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,55</t>
+          <t>0,51</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-2,95; 1,46</t>
+          <t>-3,24; 0,77</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-3,75; 0,12</t>
+          <t>-3,52; 0,41</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-1,07; 3,75</t>
+          <t>-2,45; 1,78</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-3,25; 0,87</t>
+          <t>-2,86; 1,33</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-3,43; 0,37</t>
+          <t>-3,59; 0,33</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-2,13; 1,91</t>
+          <t>-0,93; 3,77</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-2,45; 0,41</t>
+          <t>-2,37; 0,47</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-2,99; -0,14</t>
+          <t>-3,02; -0,09</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-1,14; 2,16</t>
+          <t>-1,18; 1,97</t>
         </is>
       </c>
     </row>
@@ -1602,32 +1602,32 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
+          <t>-21,26%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>-23,55%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>-7,61%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
           <t>-11,71%</t>
         </is>
       </c>
-      <c r="D22" s="2" t="inlineStr">
+      <c r="G22" s="2" t="inlineStr">
         <is>
           <t>-25,05%</t>
         </is>
       </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>18,62%</t>
-        </is>
-      </c>
-      <c r="F22" s="2" t="inlineStr">
-        <is>
-          <t>-21,26%</t>
-        </is>
-      </c>
-      <c r="G22" s="2" t="inlineStr">
-        <is>
-          <t>-23,55%</t>
-        </is>
-      </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-4,83%</t>
+          <t>19,17%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
@@ -1642,7 +1642,7 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>8,55%</t>
+          <t>7,96%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-37,8; 23,99</t>
+          <t>-46,57; 16,19</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-48,29; 2,31</t>
+          <t>-49,62; 9,86</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-13,68; 66,03</t>
+          <t>-36,66; 35,91</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-45,84; 18,49</t>
+          <t>-36,97; 22,87</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-49,3; 8,3</t>
+          <t>-46,7; 4,8</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-32,39; 40,13</t>
+          <t>-13,13; 65,54</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-33,95; 7,77</t>
+          <t>-33,41; 8,63</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-41,27; -2,37</t>
+          <t>-41,67; -1,35</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-16,45; 36,93</t>
+          <t>-15,78; 36,45</t>
         </is>
       </c>
     </row>
